--- a/StructureDefinition-bc-phn-extension.xlsx
+++ b/StructureDefinition-bc-phn-extension.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-27T20:25:30+00:00</t>
+    <t>2021-10-28T17:05:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
